--- a/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/WLP_MaxCapaTemplate.xlsx
+++ b/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/WLP_MaxCapaTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wisol_Git\OPERATION_MNS_SYSTEM\OPERATION_MNS\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5073E76E-7666-4558-A4D2-15E645BBBEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF648E-8B0F-450B-A027-4ACD190DC575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EDA554A-0F91-4569-B807-ADAA4AB4B8AD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t xml:space="preserve">Danh Mục </t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>Type(LT, LN)</t>
+  </si>
+  <si>
+    <t>SFH748ARC51P</t>
+  </si>
+  <si>
+    <t>SFR881BRC51P</t>
+  </si>
+  <si>
+    <t>SFRG52ARC51P</t>
+  </si>
+  <si>
+    <t>SFRG75ARC51P</t>
+  </si>
+  <si>
+    <t>SFWG42ARC51P</t>
+  </si>
+  <si>
+    <t>R9X0</t>
   </si>
 </sst>
 </file>
@@ -173,7 +191,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +226,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -392,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,6 +491,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,13 +599,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -659,13 +702,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1062,10 +1105,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1119,7 @@
     <col min="4" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5">
-        <v>500000</v>
+        <v>513216</v>
       </c>
       <c r="G2" s="6">
         <v>45411</v>
@@ -1147,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>500000</v>
+        <v>513216</v>
       </c>
       <c r="G3" s="6">
         <v>45411</v>
@@ -1173,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="5">
-        <v>500000</v>
+        <v>513216</v>
       </c>
       <c r="G4" s="6">
         <v>45411</v>
@@ -1199,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>500000</v>
+        <v>513216</v>
       </c>
       <c r="G5" s="6">
         <v>45411</v>
@@ -1225,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="5">
-        <v>500000</v>
+        <v>513216</v>
       </c>
       <c r="G6" s="6">
         <v>45411</v>
@@ -1251,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="5">
-        <v>500000</v>
+        <v>513216</v>
       </c>
       <c r="G7" s="6">
         <v>45411</v>
@@ -1261,28 +1305,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5">
-        <v>500000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="F8" s="33">
+        <v>513216</v>
+      </c>
+      <c r="G8" s="34">
+        <v>45411</v>
+      </c>
+      <c r="H8" s="34">
         <v>45657</v>
       </c>
     </row>
@@ -1291,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>21</v>
@@ -1303,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="5">
-        <v>500000</v>
+        <v>489888</v>
       </c>
       <c r="G9" s="6">
         <v>45411</v>
@@ -1317,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>21</v>
@@ -1329,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="5">
-        <v>500000</v>
+        <v>489888</v>
       </c>
       <c r="G10" s="6">
         <v>45411</v>
@@ -1343,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>25</v>
@@ -1355,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5">
-        <v>500000</v>
+        <v>489888</v>
       </c>
       <c r="G11" s="6">
         <v>45411</v>
@@ -1365,149 +1409,149 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>489888</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="30">
+        <v>489888</v>
+      </c>
+      <c r="G13" s="31">
+        <v>45411</v>
+      </c>
+      <c r="H13" s="31">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="30">
+        <v>489888</v>
+      </c>
+      <c r="G14" s="31">
+        <v>45411</v>
+      </c>
+      <c r="H14" s="31">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="30">
+        <v>489888</v>
+      </c>
+      <c r="G15" s="31">
+        <v>45411</v>
+      </c>
+      <c r="H15" s="31">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="30">
+        <v>489888</v>
+      </c>
+      <c r="G16" s="31">
+        <v>45411</v>
+      </c>
+      <c r="H16" s="31">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="26" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F17" s="5">
         <v>60000</v>
-      </c>
-      <c r="G12" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H12" s="6">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>300000</v>
-      </c>
-      <c r="G13" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H13" s="6">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>300000</v>
-      </c>
-      <c r="G14" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H14" s="6">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
-        <v>300000</v>
-      </c>
-      <c r="G15" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H15" s="6">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
-        <v>300000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H16" s="6">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>300000</v>
       </c>
       <c r="G17" s="6">
         <v>45411</v>
@@ -1520,13 +1564,13 @@
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -1543,26 +1587,182 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H23" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="28" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F24" s="5">
         <v>500000</v>
       </c>
-      <c r="G19" s="6">
-        <v>45411</v>
-      </c>
-      <c r="H19" s="6">
-        <v>45657</v>
-      </c>
+      <c r="G24" s="6">
+        <v>45411</v>
+      </c>
+      <c r="H24" s="6">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -1572,13 +1772,13 @@
           <x14:formula1>
             <xm:f>LoaiHang!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E19</xm:sqref>
+          <xm:sqref>E2:E24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF389CFF-62FE-4FC9-9406-88D666E0EB17}">
           <x14:formula1>
             <xm:f>LoaiHang!$F$3:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11 D13:D18</xm:sqref>
+          <xm:sqref>D18:D23 D2:D16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
